--- a/ethical-quandries.xlsx
+++ b/ethical-quandries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greys\Documents\School\CS4320\Ethics assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greys\Documents\School\CS4320\Ethics assignment\4320-4.01-STE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3D6370-050D-4EDC-8A61-10D41D668C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25D60C0-6976-4046-A3FF-56C9166648A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A5E048D6-C930-4AF3-889A-E6B9202A81DF}"/>
   </bookViews>
@@ -32,6 +32,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Technical Systems</t>
+  </si>
+  <si>
+    <t>Sociotechnical Systems</t>
+  </si>
+  <si>
+    <t>Survelliance network</t>
+  </si>
+  <si>
+    <t>People's perception of government</t>
+  </si>
+  <si>
+    <t>People's interactions with their telephone</t>
+  </si>
+  <si>
+    <t>Government's perception of whistleblowers</t>
+  </si>
+  <si>
+    <t>Ethical Quandary</t>
+  </si>
+  <si>
+    <t>Snowden Releasing State Secrets</t>
+  </si>
+  <si>
+    <t>Military technical capabilities</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +413,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9784CE45-E9A5-4001-A2E4-9BCBDC48CF45}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>